--- a/history_customer_acquisition.xlsx
+++ b/history_customer_acquisition.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G193"/>
+  <dimension ref="A1:G206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,60 +473,56 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Mensoian  Martha</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>martha@hustlestop.com</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Phone</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Date of Birth</t>
-        </is>
-      </c>
+          <t>6179703737</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Acquisition date</t>
+          <t>01/11/2025</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Status</t>
+          <t>Current client</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>First Contract</t>
+          <t>01/17/2025</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Curtin  Kristen</t>
+          <t>Sun  Leo</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>kristencurtin@yahoo.com</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>09/05/1968</t>
-        </is>
-      </c>
+          <t>leo@caninedefined.com</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>7818169672</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>01/06/2025</t>
+          <t>01/13/2025</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -539,56 +535,52 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Mensoian  Martha</t>
+          <t>Howell  Tanaysha</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>martha@hustlestop.com</t>
+          <t>julezdana@gmail.com</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>6179703737</t>
+          <t>(857) 383-1748</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>01/11/2025</t>
+          <t>01/14/2025</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Current client</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>01/17/2025</t>
-        </is>
-      </c>
+          <t>No Show</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sun  Leo</t>
+          <t>Nikolaeva  Mariana</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>leo@caninedefined.com</t>
+          <t>mnik@mail.bg</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>7818169672</t>
+          <t>5084888309</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>01/13/2025</t>
+          <t>01/14/2025</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -601,23 +593,23 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Howell  Tanaysha</t>
+          <t>Denuccio-Currao  Jessica</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>julezdana@gmail.com</t>
+          <t>graciouslyellasmomndaddy@gmail.com</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>(857) 383-1748</t>
+          <t>+17815845563</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>01/14/2025</t>
+          <t>01/15/2025</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -630,28 +622,28 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Nikolaeva  Mariana</t>
+          <t>Melo  Gislene</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>mnik@mail.bg</t>
+          <t>osmosemelose@gmail.com</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>5084888309</t>
+          <t>(617) 418-0126</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>01/14/2025</t>
+          <t>01/15/2025</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>Flop</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -659,17 +651,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Denuccio-Currao  Jessica</t>
+          <t>Brauner  Lindsey</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>graciouslyellasmomndaddy@gmail.com</t>
+          <t>blindsey7986@gmail.com</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>+17815845563</t>
+          <t>8578806324</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -688,17 +680,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Melo  Gislene</t>
+          <t>Nazim  Tayyaba</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>osmosemelose@gmail.com</t>
+          <t>tab.sab@me.com</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>(617) 418-0126</t>
+          <t>3616887835</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -717,19 +709,11 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Brauner  Lindsey</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>blindsey7986@gmail.com</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>8578806324</t>
-        </is>
-      </c>
+          <t>Rosman  Julia</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
@@ -738,7 +722,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>Flop</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -746,28 +730,28 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Nazim  Tayyaba</t>
+          <t>Rivera Perez  Carla</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>tab.sab@me.com</t>
+          <t>crivera8ga3@yahoo.com</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>3616887835</t>
+          <t>7813648997</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>01/15/2025</t>
+          <t>01/16/2025</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Flop</t>
+          <t>No Show</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -775,7 +759,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Rosman  Julia</t>
+          <t>Baker  Joanne</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -783,12 +767,12 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>01/15/2025</t>
+          <t>01/16/2025</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Flop</t>
+          <t>No Show</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -796,23 +780,23 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Rivera Perez  Carla</t>
+          <t>Porch  Kanitra</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>crivera8ga3@yahoo.com</t>
+          <t>kanitraporch@gmail.com</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>7813648997</t>
+          <t>8572177765</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>01/16/2025</t>
+          <t>01/17/2025</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -825,15 +809,23 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Baker  Joanne</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
+          <t>Duffy  Jennifer</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>j.duffy0042@gmail.com</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>6175719329</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>01/16/2025</t>
+          <t>01/17/2025</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -846,28 +838,28 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Porch  Kanitra</t>
+          <t>test  test</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>kanitraporch@gmail.com</t>
+          <t>hello@figurellamass.com</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>8572177765</t>
+          <t>777-777-7777</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>01/17/2025</t>
+          <t>07/10/2025</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>Scheduled</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -875,23 +867,23 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Duffy  Jennifer</t>
+          <t>Joseph  Cans</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>j.duffy0042@gmail.com</t>
+          <t>cacans@hotmail.com</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>6175719329</t>
+          <t>(617) 922-0173</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>01/17/2025</t>
+          <t>01/18/2025</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -904,28 +896,28 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>test  test</t>
+          <t>Ruiz  Susy</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>hello@figurellamass.com</t>
+          <t>susanita949@hotmail.com</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>777-777-7777</t>
+          <t>+18574103701</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>07/10/2025</t>
+          <t>01/18/2025</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Scheduled</t>
+          <t>No Show</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -933,57 +925,53 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Joseph  Cans</t>
+          <t>Chamovitz  Fumi</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>cacans@hotmail.com</t>
+          <t>f.nakayama1115@gmail.com</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>(617) 922-0173</t>
+          <t>8572651115</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>01/18/2025</t>
+          <t>01/19/2025</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>No Show</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
+          <t>Current client</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>01/23/2025</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Ruiz  Susy</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>susanita949@hotmail.com</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>+18574103701</t>
-        </is>
-      </c>
+          <t>Fain  Wendy</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>01/18/2025</t>
+          <t>01/20/2025</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>Flop</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -991,77 +979,85 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Chamovitz  Fumi</t>
+          <t>Lu  Lisa</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>f.nakayama1115@gmail.com</t>
+          <t>luciannalove@myyahoo.com</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>8572651115</t>
+          <t>(781) 32423232</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>01/19/2025</t>
+          <t>01/20/2025</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Current client</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>01/23/2025</t>
-        </is>
-      </c>
+          <t>No Show</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Fain  Wendy</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
+          <t>Aejaz  Henna</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>henna.kermani@gmail.com</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2486354677</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>01/20/2025</t>
+          <t>01/22/2025</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Flop</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr"/>
+          <t>Current client</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>03/17/2025</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Lu  Lisa</t>
+          <t>Crowley  Sherri</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>luciannalove@myyahoo.com</t>
+          <t>sherripcrowley@gmail.com</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>(781) 32423232</t>
+          <t>9174140085</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>01/20/2025</t>
+          <t>01/24/2025</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1074,56 +1070,52 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Aejaz  Henna</t>
+          <t>Rose  Ashley</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>henna.kermani@gmail.com</t>
+          <t>organicallyashley@gmail.com</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2486354677</t>
+          <t>+1 617-899-7669</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>01/22/2025</t>
+          <t>01/25/2025</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Current client</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>03/17/2025</t>
-        </is>
-      </c>
+          <t>No Show</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Crowley  Sherri</t>
+          <t>Signorelli  Francesca</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>sherripcrowley@gmail.com</t>
+          <t>francescabgita@gmail.com</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>9174140085</t>
+          <t>6175134398</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>01/24/2025</t>
+          <t>01/25/2025</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1136,17 +1128,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Rose  Ashley</t>
+          <t>Williams Scott  Nerissa</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>organicallyashley@gmail.com</t>
+          <t>nerissaontour@gmail.com</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>+1 617-899-7669</t>
+          <t>(617) 620-5900</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
@@ -1165,52 +1157,56 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Signorelli  Francesca</t>
+          <t>Soiffer  Georgina</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>francescabgita@gmail.com</t>
+          <t>ginagarcia88@yahoo.com</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>6175134398</t>
+          <t>6172904759</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>01/25/2025</t>
+          <t>01/26/2025</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>No Show</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr"/>
+          <t>Expired</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>01/27/2025</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Williams Scott  Nerissa</t>
+          <t>Tran  Sandy</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>nerissaontour@gmail.com</t>
+          <t>sandy54anthony@gmail.com</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>(617) 620-5900</t>
+          <t>6178188842</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>01/25/2025</t>
+          <t>01/26/2025</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1223,17 +1219,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Soiffer  Georgina</t>
+          <t>Tran  Sandy</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ginagarcia88@yahoo.com</t>
+          <t>sandy54anthony@gnail.com</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>6172904759</t>
+          <t>6178188842</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
@@ -1256,17 +1252,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Tran  Sandy</t>
+          <t>wathey  Jaida</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>sandy54anthony@gmail.com</t>
+          <t>jaidawatheycross@gmail.com</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>6178188842</t>
+          <t>781-307-0256</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
@@ -1285,61 +1281,57 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Tran  Sandy</t>
+          <t>CHARLES  Yousemithe</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>sandy54anthony@gnail.com</t>
+          <t>yousemithe29@gmail.com</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>6178188842</t>
+          <t>8576544869</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>01/26/2025</t>
+          <t>01/27/2025</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Expired</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>01/27/2025</t>
-        </is>
-      </c>
+          <t>No Show</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>wathey  Jaida</t>
+          <t>Stewart  Nancy</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>jaidawatheycross@gmail.com</t>
+          <t>jillstewart8888@gmail.com</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>781-307-0256</t>
+          <t>7812961061</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>01/26/2025</t>
+          <t>01/27/2025</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>Flop</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -1347,17 +1339,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CHARLES  Yousemithe</t>
+          <t>Joniaux  Diana</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>yousemithe29@gmail.com</t>
+          <t>djoniaux21@gmail.com</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>8576544869</t>
+          <t>660-4413970</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
@@ -1376,28 +1368,28 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Stewart  Nancy</t>
+          <t>Jacobs  Ellen</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>jillstewart8888@gmail.com</t>
+          <t>ellenjacobs22@gmail.com</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>7812961061</t>
+          <t>6176503360</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>01/27/2025</t>
+          <t>01/28/2025</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Flop</t>
+          <t>No Show</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -1405,28 +1397,20 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Joniaux  Diana</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>djoniaux21@gmail.com</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>660-4413970</t>
-        </is>
-      </c>
+          <t>VOROBYOV  KIRSTEN</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>01/27/2025</t>
+          <t>01/28/2025</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>Flop</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -1434,19 +1418,11 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Jacobs  Ellen</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>ellenjacobs22@gmail.com</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>6176503360</t>
-        </is>
-      </c>
+          <t>Centeno  Ariana</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
@@ -1455,7 +1431,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>Flop</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -1463,20 +1439,28 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>VOROBYOV  KIRSTEN</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
+          <t>Mingace  Tina</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>tmingace@areinc.com</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>(774) 263-2115</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>01/28/2025</t>
+          <t>01/30/2025</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Flop</t>
+          <t>No Show</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -1484,20 +1468,28 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Centeno  Ariana</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
+          <t>James  Fantasia</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>afterhourznotary@gmail.com</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>8573333968</t>
+        </is>
+      </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>01/28/2025</t>
+          <t>01/31/2025</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Flop</t>
+          <t>No Show</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
@@ -1505,23 +1497,23 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Mingace  Tina</t>
+          <t>Marcelus  Meagan</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>tmingace@areinc.com</t>
+          <t>meaganmarcelus@yahoo.com</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>(774) 263-2115</t>
+          <t>8572509278</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>01/30/2025</t>
+          <t>01/31/2025</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1534,23 +1526,23 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>James  Fantasia</t>
+          <t>Stridh  Tatiana</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>afterhourznotary@gmail.com</t>
+          <t>tvstridh@gmail.cok</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>8573333968</t>
+          <t>+18572367313</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>01/31/2025</t>
+          <t>02/01/2025</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1563,28 +1555,28 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Marcelus  Meagan</t>
+          <t>Chestukhin  Masha</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>meaganmarcelus@yahoo.com</t>
+          <t>m_chestukhin@yahoo.com</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>8572509278</t>
+          <t>+16175715147</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>01/31/2025</t>
+          <t>02/02/2025</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>Flop</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -1592,60 +1584,56 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Stridh  Tatiana</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>tvstridh@gmail.cok</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>+18572367313</t>
-        </is>
-      </c>
+          <t>Barbalat  Yana</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>02/01/2025</t>
+          <t>04/25/2025</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>No Show</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr"/>
+          <t>Current client</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>04/25/2025</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Chestukhin  Masha</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>m_chestukhin@yahoo.com</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>+16175715147</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
+          <t>Alivis  Giselia</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>07/13/1951</t>
+        </is>
+      </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>02/02/2025</t>
+          <t>05/12/2025</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Flop</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr"/>
+          <t>Current client</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>05/12/2025</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2938,7 +2926,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>Scheduled</t>
         </is>
       </c>
       <c r="G86" t="inlineStr"/>
@@ -3224,7 +3212,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>Scheduled</t>
         </is>
       </c>
       <c r="G96" t="inlineStr"/>
@@ -3347,7 +3335,11 @@
           <t>Barbalat  Yana</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr"/>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>yanabarbalat@gmail.com</t>
+        </is>
+      </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
@@ -3598,7 +3590,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Current client</t>
+          <t>Expired</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -3893,7 +3885,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Alivis  Giselia</t>
+          <t>Alvis  Giselia</t>
         </is>
       </c>
       <c r="B122" t="inlineStr"/>
@@ -5124,7 +5116,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Try</t>
+          <t>Scheduled</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -5236,7 +5228,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Try</t>
+          <t>Scheduled</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -5635,7 +5627,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>To Call</t>
+          <t>No Show</t>
         </is>
       </c>
       <c r="G183" t="inlineStr"/>
@@ -5664,7 +5656,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>To Call</t>
+          <t>No Show</t>
         </is>
       </c>
       <c r="G184" t="inlineStr"/>
@@ -5842,7 +5834,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Scheduled</t>
+          <t>Flop</t>
         </is>
       </c>
       <c r="G190" t="inlineStr"/>
@@ -5871,10 +5863,14 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>To Call</t>
-        </is>
-      </c>
-      <c r="G191" t="inlineStr"/>
+          <t>Current client</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>07/19/2025</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -5929,6 +5925,367 @@
         </is>
       </c>
       <c r="G193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Hadar  Nicole</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr"/>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>(857) 222-9612?</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr"/>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>07/19/2025</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Try</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>07/19/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Wikström  Atousa</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr"/>
+      <c r="C195" t="inlineStr"/>
+      <c r="D195" t="inlineStr"/>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>07/19/2025</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Ginsburg  Donna</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>donnafonna@icloud.com</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>6175956630</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr"/>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>07/20/2025</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Flop</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Arnett  Susie</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>e2mama@mac.com</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>3107293888</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr"/>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>07/21/2025</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>To Call</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Jaynes  Lisa</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr"/>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>617-283-8598</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr"/>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>07/21/2025</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Flop</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Pleskow  Heather</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr"/>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>(339-225-1333)</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>07/21/2025</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Current client</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>07/26/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Kahana  Sara</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>s.kahana34@gmail.com</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>6178930767</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>07/25/2025</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>To Call</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Santos  Juliana</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>juliana9.0@hotmail.com</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>+18578915669</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>07/29/2025</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>No Show</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Campasso  Cristina</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>cristinacampasso@gmail.com</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>4107363905</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr"/>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>07/29/2025</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Current client</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>07/29/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Pogorelec  Suzanne</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr"/>
+      <c r="C203" t="inlineStr"/>
+      <c r="D203" t="inlineStr"/>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>07/30/2025</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Flop</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Huang  Fainy</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>fainyhuang@outlook.com</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>6178937816</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr"/>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>07/30/2025</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>To Call</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Langan  Megan</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>megan.pelletier@ymail.com</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>6179222756</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr"/>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>08/02/2025</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>To Call</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Johnson  Nakeisha</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>ncjohnson10@gmail.com</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>6176972038</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr"/>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>08/04/2025</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>To Call</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
